--- a/biology/Botanique/Suillus_spraguei/Suillus_spraguei.xlsx
+++ b/biology/Botanique/Suillus_spraguei/Suillus_spraguei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet peint
 Suillus spraguei ou Suillus pictus, le Bolet peint, est une espèce de champignons basidiomycètes du genre Suillus de la famille des Suillaceae. Il pousse principalement aux États-Unis et au Canada, mais a été trouvé en Europe et en Russie. Ce bolet est bien caractérisé par son chapeau rouge vin, sec et méchuleux, ses pores anguleux et par la présence d'un voile partiel. 
@@ -512,12 +524,49 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Suillus spraguei (Berk. &amp; M.A. Curtis) Kuntze, 1898[1]. 
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus spraguei Berk. &amp; M.A. Curtis, 1872[1].
-Synonymes
-Suillus spraguei a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Suillus spraguei (Berk. &amp; M.A. Curtis) Kuntze, 1898. 
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus spraguei Berk. &amp; M.A. Curtis, 1872.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Suillus_spraguei</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillus_spraguei</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Suillus spraguei a pour synonymes :
 Boletus murrayi Berk. &amp; M.A.
 Boletus pictus Peck, 1872
 Boletus spraguei Berk. &amp; M.A.
@@ -525,40 +574,111 @@
 Boletus pictus Peck
 Boletinus pictus Peck
 Suillus murrayi (Berk. &amp; M.A. Curtis) Kuntze
-Suillus pictus (Peck) Kuntze
-Phylogénie
-L'histoire taxonomique de Suillus spraguei est complexe. Le premier spécimen a été collecté en Nouvelle-Angleterre en 1856 par Charles James Sprague, et une description scientifique formelle a été publiée en 1872 lorsque Miles Joseph Berkeley et Moses Ashley Curtis l'ont appelé Boletus spraguei. Dans une publication parue l'année suivante, le mycologue américain Charles Horton Peck a nommé l'espèce Boletus pictus. Berkeley et Curtis avaient également décrit ce qu'ils pensaient être une nouvelle espèce - Boletus murrai - bien que Rolf Singer ait considéré plus tard qu'il s'agissait simplement d'une version plus jeune de leur Boletus spraguei[2]. La description de Peck a été publiée en 1873, mais le cachet de la date sur la publication originale a révélé qu'il avait envoyé ses documents à l'imprimeur avant la publication de 1872 de Berkeley et Curtis, établissant ainsi la priorité nomenclaturale selon les règles de la dénomination des champignons. En 1945, Singer a déclaré que le nom Boletus pictus était illégitime car il s'agissait d'un homonyme, déjà utilisé pour un Polypore décrit par Karl Friedrich Schultz en 1806. Le nom a été officiellement remplacé par Suillus spraguei en 1986 (Otto Kuntze avait précédemment transféré le taxon à Suillus en 1898[3]).
-Étymologie
-L'épithète spécifique spraguei est un hommage à Charles James Sprague qui a été le premier à collecter l'espèce, tandis que pictus signifie "peint" ou "coloré".
+Suillus pictus (Peck) Kuntze</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Suillus_spraguei</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillus_spraguei</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'histoire taxonomique de Suillus spraguei est complexe. Le premier spécimen a été collecté en Nouvelle-Angleterre en 1856 par Charles James Sprague, et une description scientifique formelle a été publiée en 1872 lorsque Miles Joseph Berkeley et Moses Ashley Curtis l'ont appelé Boletus spraguei. Dans une publication parue l'année suivante, le mycologue américain Charles Horton Peck a nommé l'espèce Boletus pictus. Berkeley et Curtis avaient également décrit ce qu'ils pensaient être une nouvelle espèce - Boletus murrai - bien que Rolf Singer ait considéré plus tard qu'il s'agissait simplement d'une version plus jeune de leur Boletus spraguei. La description de Peck a été publiée en 1873, mais le cachet de la date sur la publication originale a révélé qu'il avait envoyé ses documents à l'imprimeur avant la publication de 1872 de Berkeley et Curtis, établissant ainsi la priorité nomenclaturale selon les règles de la dénomination des champignons. En 1945, Singer a déclaré que le nom Boletus pictus était illégitime car il s'agissait d'un homonyme, déjà utilisé pour un Polypore décrit par Karl Friedrich Schultz en 1806. Le nom a été officiellement remplacé par Suillus spraguei en 1986 (Otto Kuntze avait précédemment transféré le taxon à Suillus en 1898).
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Suillus_spraguei</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Suillus_spraguei</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique spraguei est un hommage à Charles James Sprague qui a été le premier à collecter l'espèce, tandis que pictus signifie "peint" ou "coloré".
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Suillus_spraguei</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillus_spraguei</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hyménophore mesure 3-10 cm de diam., il est est convexe puis largement convexe à subétalé, parfois déprimé, sec, méchuleux, rouge vin, parfois noirâtre au pourtour, à marge souvent appendiculée de restes véliques blanchâtres. Jeune il peut être conique
 L'hyménium est jaune ocré pâle, brunissant avec l'âge et un peu au froissement.
